--- a/contratos/contratos-2-2010.xlsx
+++ b/contratos/contratos-2-2010.xlsx
@@ -487,7 +487,7 @@
     <t>CIUCIO CLAUDIO ANDRES</t>
   </si>
   <si>
-    <t>PITTER ROLANDO L.J, CERGNEUX MARIO M. Y CERGNEUX DANIEL F.  S.H.</t>
+    <t>PITTER ROLANDO LJ. CERGNEUX MARIO M Y CERGNEUX DANIEL F  SH</t>
   </si>
   <si>
     <t>SYLVESTRE CARLOS OMAR</t>
@@ -499,13 +499,13 @@
     <t>DIAZ JULIA Y DUARTE LAUTARO</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
   </si>
   <si>
     <t>JACOBI SERGIO JAVIER</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>OLIVERA JOSE PEDRO</t>
@@ -514,7 +514,7 @@
     <t>BRAVIN DANIEL ROQUE</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
   </si>
   <si>
     <t>METRALLE GRISELDA BEATRIZ</t>
@@ -814,325 +814,325 @@
     <t>92</t>
   </si>
   <si>
-    <t>860,00</t>
-  </si>
-  <si>
-    <t>121.255,50</t>
-  </si>
-  <si>
-    <t>66.250,00</t>
-  </si>
-  <si>
-    <t>15,00</t>
-  </si>
-  <si>
-    <t>880,00</t>
-  </si>
-  <si>
-    <t>126,00</t>
-  </si>
-  <si>
-    <t>48,00</t>
-  </si>
-  <si>
-    <t>11.280,00</t>
-  </si>
-  <si>
-    <t>22.831,00</t>
-  </si>
-  <si>
-    <t>136.696,07</t>
-  </si>
-  <si>
-    <t>1.372,55</t>
-  </si>
-  <si>
-    <t>1.944,55</t>
-  </si>
-  <si>
-    <t>5.915,16</t>
-  </si>
-  <si>
-    <t>230,50</t>
-  </si>
-  <si>
-    <t>733,61</t>
-  </si>
-  <si>
-    <t>7.617,69</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>2.498,00</t>
-  </si>
-  <si>
-    <t>7,00</t>
-  </si>
-  <si>
-    <t>703,80</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>939,93</t>
-  </si>
-  <si>
-    <t>160,00</t>
-  </si>
-  <si>
-    <t>19.063,78</t>
-  </si>
-  <si>
-    <t>258,00</t>
-  </si>
-  <si>
-    <t>285,00</t>
-  </si>
-  <si>
-    <t>41.095,80</t>
-  </si>
-  <si>
-    <t>1.081,00</t>
-  </si>
-  <si>
-    <t>2.137,42</t>
-  </si>
-  <si>
-    <t>70,00</t>
-  </si>
-  <si>
-    <t>11.331,50</t>
-  </si>
-  <si>
-    <t>234,36</t>
-  </si>
-  <si>
-    <t>21,00</t>
-  </si>
-  <si>
-    <t>38,44</t>
-  </si>
-  <si>
-    <t>407,93</t>
-  </si>
-  <si>
-    <t>255,92</t>
-  </si>
-  <si>
-    <t>1.298,22</t>
-  </si>
-  <si>
-    <t>455,00</t>
-  </si>
-  <si>
-    <t>14.440,00</t>
-  </si>
-  <si>
-    <t>63,00</t>
-  </si>
-  <si>
-    <t>596,00</t>
-  </si>
-  <si>
-    <t>110,00</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>45.339,20</t>
-  </si>
-  <si>
-    <t>515,30</t>
-  </si>
-  <si>
-    <t>1.042,62</t>
-  </si>
-  <si>
-    <t>1.164,12</t>
-  </si>
-  <si>
-    <t>970,00</t>
-  </si>
-  <si>
-    <t>648,00</t>
-  </si>
-  <si>
-    <t>916,70</t>
-  </si>
-  <si>
-    <t>4.815,80</t>
-  </si>
-  <si>
-    <t>595,00</t>
-  </si>
-  <si>
-    <t>1.634,00</t>
-  </si>
-  <si>
-    <t>837,00</t>
-  </si>
-  <si>
-    <t>60,00</t>
-  </si>
-  <si>
-    <t>28,35</t>
-  </si>
-  <si>
-    <t>185,27</t>
-  </si>
-  <si>
-    <t>80,00</t>
-  </si>
-  <si>
-    <t>3.758,96</t>
-  </si>
-  <si>
-    <t>35.256,00</t>
-  </si>
-  <si>
-    <t>580,00</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>16.940,00</t>
-  </si>
-  <si>
-    <t>230,25</t>
-  </si>
-  <si>
-    <t>442,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>2.420,00</t>
-  </si>
-  <si>
-    <t>670,00</t>
-  </si>
-  <si>
-    <t>380,12</t>
-  </si>
-  <si>
-    <t>1.328,00</t>
-  </si>
-  <si>
-    <t>650,00</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>14.908,00</t>
-  </si>
-  <si>
-    <t>416,00</t>
-  </si>
-  <si>
-    <t>698,00</t>
-  </si>
-  <si>
-    <t>365,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>2.547,00</t>
-  </si>
-  <si>
-    <t>1.981,00</t>
-  </si>
-  <si>
-    <t>140,00</t>
-  </si>
-  <si>
-    <t>145,76</t>
-  </si>
-  <si>
-    <t>1.682,00</t>
-  </si>
-  <si>
-    <t>3.495,00</t>
-  </si>
-  <si>
-    <t>2.085,92</t>
-  </si>
-  <si>
-    <t>780,00</t>
-  </si>
-  <si>
-    <t>50,80</t>
-  </si>
-  <si>
-    <t>2.156,00</t>
-  </si>
-  <si>
-    <t>224,58</t>
-  </si>
-  <si>
-    <t>561,00</t>
-  </si>
-  <si>
-    <t>3.372,17</t>
-  </si>
-  <si>
-    <t>639,70</t>
-  </si>
-  <si>
-    <t>243,06</t>
-  </si>
-  <si>
-    <t>657,00</t>
-  </si>
-  <si>
-    <t>290,00</t>
-  </si>
-  <si>
-    <t>6.965,34</t>
-  </si>
-  <si>
-    <t>225,00</t>
-  </si>
-  <si>
-    <t>12.879,00</t>
-  </si>
-  <si>
-    <t>293.808,98</t>
-  </si>
-  <si>
-    <t>960,00</t>
-  </si>
-  <si>
-    <t>297.656,51</t>
-  </si>
-  <si>
-    <t>1.756,52</t>
-  </si>
-  <si>
-    <t>4.800,00</t>
-  </si>
-  <si>
-    <t>3.040,00</t>
-  </si>
-  <si>
-    <t>1.750,00</t>
-  </si>
-  <si>
-    <t>2.050,00</t>
+    <t>860.00</t>
+  </si>
+  <si>
+    <t>121255.50</t>
+  </si>
+  <si>
+    <t>66250.00</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>880.00</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>11280.00</t>
+  </si>
+  <si>
+    <t>22831.00</t>
+  </si>
+  <si>
+    <t>136696.07</t>
+  </si>
+  <si>
+    <t>1372.55</t>
+  </si>
+  <si>
+    <t>1944.55</t>
+  </si>
+  <si>
+    <t>5915.16</t>
+  </si>
+  <si>
+    <t>230.50</t>
+  </si>
+  <si>
+    <t>733.61</t>
+  </si>
+  <si>
+    <t>7617.69</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>2498.00</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>703.80</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>939.93</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>19063.78</t>
+  </si>
+  <si>
+    <t>258.00</t>
+  </si>
+  <si>
+    <t>285.00</t>
+  </si>
+  <si>
+    <t>41095.80</t>
+  </si>
+  <si>
+    <t>1081.00</t>
+  </si>
+  <si>
+    <t>2137.42</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>11331.50</t>
+  </si>
+  <si>
+    <t>234.36</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>38.44</t>
+  </si>
+  <si>
+    <t>407.93</t>
+  </si>
+  <si>
+    <t>255.92</t>
+  </si>
+  <si>
+    <t>1298.22</t>
+  </si>
+  <si>
+    <t>455.00</t>
+  </si>
+  <si>
+    <t>14440.00</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>596.00</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>45339.20</t>
+  </si>
+  <si>
+    <t>515.30</t>
+  </si>
+  <si>
+    <t>1042.62</t>
+  </si>
+  <si>
+    <t>1164.12</t>
+  </si>
+  <si>
+    <t>970.00</t>
+  </si>
+  <si>
+    <t>648.00</t>
+  </si>
+  <si>
+    <t>916.70</t>
+  </si>
+  <si>
+    <t>4815.80</t>
+  </si>
+  <si>
+    <t>595.00</t>
+  </si>
+  <si>
+    <t>1634.00</t>
+  </si>
+  <si>
+    <t>837.00</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>28.35</t>
+  </si>
+  <si>
+    <t>185.27</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>3758.96</t>
+  </si>
+  <si>
+    <t>35256.00</t>
+  </si>
+  <si>
+    <t>580.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>16940.00</t>
+  </si>
+  <si>
+    <t>230.25</t>
+  </si>
+  <si>
+    <t>442.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>2420.00</t>
+  </si>
+  <si>
+    <t>670.00</t>
+  </si>
+  <si>
+    <t>380.12</t>
+  </si>
+  <si>
+    <t>1328.00</t>
+  </si>
+  <si>
+    <t>650.00</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>14908.00</t>
+  </si>
+  <si>
+    <t>416.00</t>
+  </si>
+  <si>
+    <t>698.00</t>
+  </si>
+  <si>
+    <t>365.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>2547.00</t>
+  </si>
+  <si>
+    <t>1981.00</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>145.76</t>
+  </si>
+  <si>
+    <t>1682.00</t>
+  </si>
+  <si>
+    <t>3495.00</t>
+  </si>
+  <si>
+    <t>2085.92</t>
+  </si>
+  <si>
+    <t>780.00</t>
+  </si>
+  <si>
+    <t>50.80</t>
+  </si>
+  <si>
+    <t>2156.00</t>
+  </si>
+  <si>
+    <t>224.58</t>
+  </si>
+  <si>
+    <t>561.00</t>
+  </si>
+  <si>
+    <t>3372.17</t>
+  </si>
+  <si>
+    <t>639.70</t>
+  </si>
+  <si>
+    <t>243.06</t>
+  </si>
+  <si>
+    <t>657.00</t>
+  </si>
+  <si>
+    <t>290.00</t>
+  </si>
+  <si>
+    <t>6965.34</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>12879.00</t>
+  </si>
+  <si>
+    <t>293808.98</t>
+  </si>
+  <si>
+    <t>960.00</t>
+  </si>
+  <si>
+    <t>297656.51</t>
+  </si>
+  <si>
+    <t>1756.52</t>
+  </si>
+  <si>
+    <t>4800.00</t>
+  </si>
+  <si>
+    <t>3040.00</t>
+  </si>
+  <si>
+    <t>1750.00</t>
+  </si>
+  <si>
+    <t>2050.00</t>
   </si>
 </sst>
 </file>
